--- a/26. Recherche opérationnelle en Excel/40 - SAC A DOS SIMPLE - EXCEL/01. KnapSack 0-1 en Français.xlsx
+++ b/26. Recherche opérationnelle en Excel/40 - SAC A DOS SIMPLE - EXCEL/01. KnapSack 0-1 en Français.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science2\26. Recherche opérationnelle en Excel\40 - KNAPSAC SIMPLE - EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\www\python-data-science2\26. Recherche opérationnelle en Excel\40 - SAC A DOS SIMPLE - EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -233,6 +233,93 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5699760" cy="3086100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4579620" y="2491740"/>
+          <a:ext cx="5699760" cy="3086100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>265746</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>496341</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>174308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4532946" y="2179320"/>
+          <a:ext cx="5716995" cy="4944428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -501,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/26. Recherche opérationnelle en Excel/40 - SAC A DOS SIMPLE - EXCEL/01. KnapSack 0-1 en Français.xlsx
+++ b/26. Recherche opérationnelle en Excel/40 - SAC A DOS SIMPLE - EXCEL/01. KnapSack 0-1 en Français.xlsx
@@ -14,6 +14,47 @@
   <sheets>
     <sheet name="SAC A DOS 0-1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="choisis">'SAC A DOS 0-1'!$E$2:$E$6</definedName>
+    <definedName name="limite_poids">'SAC A DOS 0-1'!$C$9</definedName>
+    <definedName name="poids">'SAC A DOS 0-1'!$C$2:$C$6</definedName>
+    <definedName name="poids_total">'SAC A DOS 0-1'!$C$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'SAC A DOS 0-1'!$E$2:$E$6</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'SAC A DOS 0-1'!$E$2:$E$6</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'SAC A DOS 0-1'!$C$8</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'SAC A DOS 0-1'!$C$10</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">limite_poids</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="valeur">'SAC A DOS 0-1'!$D$2:$D$6</definedName>
+    <definedName name="valeur_totale">'SAC A DOS 0-1'!$C$10</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +64,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">Il faut choisir parmis </t>
+  </si>
+  <si>
+    <t>Objets</t>
+  </si>
+  <si>
+    <t>Poids</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>ces objets</t>
+  </si>
+  <si>
+    <t>pour obtenir</t>
+  </si>
+  <si>
+    <t>le sac qui a la plus grande</t>
+  </si>
+  <si>
+    <t>de poids &lt;= 15</t>
+  </si>
+  <si>
+    <t>Poids total des objets choisis</t>
+  </si>
+  <si>
+    <t>limite de poids</t>
+  </si>
+  <si>
+    <t>valeur totale</t>
+  </si>
+  <si>
+    <t>poids</t>
+  </si>
+  <si>
+    <t>C2:C6</t>
+  </si>
+  <si>
+    <t>valeur</t>
+  </si>
+  <si>
+    <t>D2:D6</t>
+  </si>
+  <si>
+    <t>choisis</t>
+  </si>
+  <si>
+    <t>E2:E6</t>
+  </si>
+  <si>
+    <t>poids_total</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C'est la function objectif à minimiser à l'aide du solveur</t>
+  </si>
+  <si>
+    <t>C'est la contrainte unique</t>
+  </si>
+  <si>
+    <t>A la suite du clic sur 'solve', on va avoir cette information calculée</t>
+  </si>
+  <si>
+    <t>Choisi ?</t>
+  </si>
+  <si>
+    <t>Ce sont les variables de décision de type entier (0-1) que va apporter la solution du solveur</t>
+  </si>
+  <si>
+    <t>La valeur de chaque objet</t>
+  </si>
+  <si>
+    <t>Le poids de chaque objet</t>
+  </si>
+  <si>
+    <t>valeur_totale</t>
+  </si>
+  <si>
+    <t>limite_poids</t>
+  </si>
+  <si>
+    <t>valeur possible sous contrainte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Légende : Noms donnés aux ranges </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,19 +175,108 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -54,8 +285,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,16 +525,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>265746</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296226</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>496341</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>174308</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>526821</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>44768</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -310,7 +551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4532946" y="2179320"/>
+          <a:off x="8350566" y="2232660"/>
           <a:ext cx="5716995" cy="4944428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -586,14 +827,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <f>SUMPRODUCT(poids,choisis)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="9">
+        <f>SUMPRODUCT(valeur,choisis)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
